--- a/data/database/SMR_Portal_Supplementary.xlsx
+++ b/data/database/SMR_Portal_Supplementary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westlakeu-my.sharepoint.com/personal/guoyazhou_westlake_edu_cn/Documents/Project/SMR_base/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC9B4B1-0751-BE4B-BC82-48E093CAAE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22973C2A-E7EA-7A4A-B74C-3769B0BE2BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35540" yWindow="2380" windowWidth="34060" windowHeight="19680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="2200" windowWidth="34060" windowHeight="19680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 xQTL data" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="553">
   <si>
     <t>Reference</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Hypertension</t>
   </si>
   <si>
-    <t>http://results.globalbiobankmeta.org/</t>
-  </si>
-  <si>
     <t>Jiang et al. Nat Genet 2019</t>
   </si>
   <si>
@@ -1232,312 +1229,24 @@
     <t>N controls</t>
   </si>
   <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_ADDISON.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_F5_ALLANXIOUS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_AMYLOIDOSIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_ANGINA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_KRA_PSY_ANXIETY.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_KRA_PSY_ANYMENTAL.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_AUTOIMMUNE.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_CD2_BENIGN.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_CARDMYO.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_CARDMYOHYP.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_CVD.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_G6_CARPTU.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_CEREBVASC.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_K11_CHOLECYST.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_K11_CHOLELITH.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_K11_COELIAC.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_CONJUNCTIVITIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_CORNULCER.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_CABG.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_Q17_CYSTIC_KIDNEY_DISEA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_N14_ENDOMETRIOSIS_DEEP.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_F5_DEMENTIA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_DIABETES.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_DM_SEVERAL_COMPLICATIONS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_G6_DIABETNEUR.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_DM_NEPHROPATHY.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_DM_NEUROPATHY.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_RETINOPATHYDIAB.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_K11_DULC.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_G6_DYSTON.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_J10_EMPHYSEMA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_N14_ENDOMETRIOSIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_FH.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_K11_GASTRODUOULC.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_K11_GIDISEASES.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_GLAUCOMA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_CVD_HARD.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_R18_HEADACHE1.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_HYPERPARA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_HYPTENS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_ILD_INSUFFICIENCY.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_ICH.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_KERATITIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_LACTOSEINT.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_L12_LICHENPLANUS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_N14_MENORRHAGIA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_METABOLIA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_G6_ALS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_G6_MUSDYST.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_MYELOPROF.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_MI.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_MI_STRICT.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_MYOPIA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_L12_NAILDIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_J10_NASALPOLYP.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_N14_NEPHROTICSYND.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_OBESITY.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_M13_OSTEOPOROSIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_F5_ANXIETY.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H7_RETINOPATHYDIAB_NAS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_H8_OTOSCLE.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_PCOS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_POLYCYTVERA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_M13_POLYMYALGIA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_O15_POSTPART_HEAMORRH.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_O15_PREECLAMPS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_N14_PREMENSTSYNDROM.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_L12_PSORIASIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_E4_HYPERCHOL.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_REITER.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_RESPIRATORYINSUFF.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_D3_SARCOIDOSIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_M13_SPINSTENOSIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_SPONDYLOARTHRITIS.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_I9_SAH.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_L12_URTICARIA.gz</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/finngen-public-data-r7/summary_stats/finngen_R7_D3_VONVILLEBRAND.gz</t>
-  </si>
-  <si>
     <t>Kurki, M. I. et al. Nature. 2023</t>
   </si>
   <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/366_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/557.1_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/575.1_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/364.5_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/562.1_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/251.1_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/381.1_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/200.1_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/594_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/599.4_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/UKBbin/626.8_PheCode.v1.0.fastGWA.gz</t>
-  </si>
-  <si>
     <t>Jiang, L. et al. Nat Genet. 2021</t>
   </si>
   <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90085001-GCST90086000/GCST90085444</t>
-  </si>
-  <si>
     <t>Backman, J. D. et al. Nature. 2021</t>
   </si>
   <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90272001-GCST90273000/GCST90272883</t>
-  </si>
-  <si>
     <t>Pujol Gualdo, N. et al. Hum Reprod. 2023</t>
   </si>
   <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90077001-GCST90078000/GCST90077582</t>
-  </si>
-  <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90081001-GCST90082000/GCST90081776</t>
-  </si>
-  <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90271001-GCST90272000/GCST90271713</t>
-  </si>
-  <si>
     <t>Hartmann, S. et al. Nat Commun. 2023</t>
   </si>
   <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90001001-GCST90002000/GCST90001389</t>
-  </si>
-  <si>
     <t>Jones, E. et al. Lancet Neurol. 2020</t>
   </si>
   <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90080001-GCST90081000/GCST90080059</t>
-  </si>
-  <si>
-    <t>http://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/GCST90270001-GCST90271000/GCST90270867</t>
-  </si>
-  <si>
     <t>Butler-Laporte, G. et al. Int J Epidemiol. 2023</t>
   </si>
   <si>
@@ -1752,30 +1461,6 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/ng.3680</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/hmg/article/28/1/166/5098227?login=false</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/2714.v1.1.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/23099.v1.1.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/21001.v1.1.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/4079.v1.1.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/4080.v1.1.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/6152_9.v1.1.fastGWA.gz</t>
-  </si>
-  <si>
-    <t>https://yanglab.westlake.edu.cn/resources/fastgwa_data/WES/78.v1.1.fastGWA.gz</t>
   </si>
   <si>
     <t>Pulit, S. L. et al. Hum Mol Genet. 2019</t>
@@ -2022,6 +1707,36 @@
   </si>
   <si>
     <t>https://www.science.org/doi/10.1126/science.abj1541</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/cell-genomics/fulltext/S2666-979X(22)00141-0</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/hmg/article/28/1/166/5098227</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-021-04103-z</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-023-41876-5</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/journals/laneur/article/PIIS1474-4422(20)30273-8</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ije/article-abstract/52/4/1163/7034613</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/humrep/article/38/12/2516/7329306</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41588-019-0530-8</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41588-021-00954-4</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-022-05473-8</t>
   </si>
 </sst>
 </file>
@@ -2174,7 +1889,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2305,9 +2020,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2340,13 +2052,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2650,9 +2377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC86B628-C315-474B-84D7-2B92E0189E97}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2668,34 +2395,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>628</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="A1" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>629</v>
+        <v>524</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>8</v>
@@ -2710,7 +2437,7 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -2729,16 +2456,16 @@
         <v>109</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="21" t="s">
         <v>163</v>
       </c>
@@ -2755,17 +2482,17 @@
         <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2780,18 +2507,18 @@
       <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>292</v>
+      <c r="G5" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>291</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2804,14 +2531,14 @@
       <c r="F6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2824,14 +2551,14 @@
       <c r="F7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2839,19 +2566,19 @@
         <v>432</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="25"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2859,19 +2586,19 @@
         <v>240</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="57"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2879,19 +2606,19 @@
         <v>663</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="57"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="56"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2904,14 +2631,14 @@
       <c r="F11" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="57"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2924,14 +2651,14 @@
       <c r="F12" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2944,14 +2671,14 @@
       <c r="F13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="57"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2964,14 +2691,14 @@
       <c r="F14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="57"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="56"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2984,14 +2711,14 @@
       <c r="F15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="56"/>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3004,14 +2731,14 @@
       <c r="F16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="57"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3024,14 +2751,14 @@
       <c r="F17" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="57"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3044,14 +2771,14 @@
       <c r="F18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="57"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3064,14 +2791,14 @@
       <c r="F19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="57"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3084,14 +2811,14 @@
       <c r="F20" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="57"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3104,14 +2831,14 @@
       <c r="F21" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="57"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
@@ -3124,14 +2851,14 @@
       <c r="F22" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
@@ -3144,14 +2871,14 @@
       <c r="F23" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="57"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -3159,19 +2886,19 @@
         <v>459</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="57"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3179,19 +2906,19 @@
         <v>504</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="57"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -3199,19 +2926,19 @@
         <v>174</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -3219,19 +2946,19 @@
         <v>373</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="57"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -3239,19 +2966,19 @@
         <v>406</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="57"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -3259,19 +2986,19 @@
         <v>375</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="57"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
@@ -3279,19 +3006,19 @@
         <v>555</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="57"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
@@ -3299,19 +3026,19 @@
         <v>515</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
@@ -3319,19 +3046,19 @@
         <v>429</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="57"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
@@ -3339,19 +3066,19 @@
         <v>432</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="57"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
@@ -3359,19 +3086,19 @@
         <v>85</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="57"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
@@ -3384,14 +3111,14 @@
       <c r="F35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="57"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
@@ -3404,14 +3131,14 @@
       <c r="F36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="57"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
@@ -3424,12 +3151,12 @@
       <c r="F37" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="57"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="56"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
@@ -3442,12 +3169,12 @@
       <c r="F38" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="61"/>
-      <c r="H38" s="57"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="56"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -3460,12 +3187,12 @@
       <c r="F39" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="57"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="56"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -3478,12 +3205,12 @@
       <c r="F40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="61"/>
-      <c r="H40" s="57"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="56"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -3496,12 +3223,12 @@
       <c r="F41" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="57"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -3514,12 +3241,12 @@
       <c r="F42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="57"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -3532,12 +3259,12 @@
       <c r="F43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="57"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="56"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -3545,17 +3272,17 @@
         <v>604</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="57"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -3563,17 +3290,17 @@
         <v>701</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="57"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="56"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -3586,12 +3313,12 @@
       <c r="F46" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="57"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -3604,12 +3331,12 @@
       <c r="F47" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="57"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -3622,12 +3349,12 @@
       <c r="F48" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="61"/>
-      <c r="H48" s="57"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -3640,12 +3367,12 @@
       <c r="F49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="57"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="56"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -3658,12 +3385,12 @@
       <c r="F50" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="57"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="56"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -3676,12 +3403,12 @@
       <c r="F51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="57"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="56"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
@@ -3694,12 +3421,12 @@
       <c r="F52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="57"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="56"/>
     </row>
     <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="17" t="s">
         <v>57</v>
       </c>
@@ -3712,11 +3439,11 @@
       <c r="F53" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="58"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="57"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="54" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="29" t="s">
@@ -3735,15 +3462,15 @@
         <v>111</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60" t="s">
+      <c r="A55" s="59"/>
+      <c r="B55" s="59" t="s">
         <v>168</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3758,16 +3485,16 @@
       <c r="F55" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" s="57" t="s">
-        <v>292</v>
+      <c r="G55" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="2" t="s">
         <v>114</v>
       </c>
@@ -3780,12 +3507,12 @@
       <c r="F56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="61"/>
-      <c r="H56" s="57"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="56"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="2" t="s">
         <v>115</v>
       </c>
@@ -3798,12 +3525,12 @@
       <c r="F57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="57"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="56"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="2" t="s">
         <v>116</v>
       </c>
@@ -3811,17 +3538,17 @@
         <v>432</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="57"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="56"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="2" t="s">
         <v>117</v>
       </c>
@@ -3829,17 +3556,17 @@
         <v>240</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="57"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="56"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="2" t="s">
         <v>118</v>
       </c>
@@ -3847,17 +3574,17 @@
         <v>663</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="61"/>
-      <c r="H60" s="57"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="56"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="2" t="s">
         <v>119</v>
       </c>
@@ -3870,12 +3597,12 @@
       <c r="F61" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="57"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="56"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="2" t="s">
         <v>120</v>
       </c>
@@ -3888,12 +3615,12 @@
       <c r="F62" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="61"/>
-      <c r="H62" s="57"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="56"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="2" t="s">
         <v>121</v>
       </c>
@@ -3906,12 +3633,12 @@
       <c r="F63" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="61"/>
-      <c r="H63" s="57"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="56"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="2" t="s">
         <v>122</v>
       </c>
@@ -3924,12 +3651,12 @@
       <c r="F64" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="57"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="56"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="2" t="s">
         <v>123</v>
       </c>
@@ -3942,12 +3669,12 @@
       <c r="F65" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G65" s="61"/>
-      <c r="H65" s="57"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="56"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="2" t="s">
         <v>124</v>
       </c>
@@ -3960,12 +3687,12 @@
       <c r="F66" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="61"/>
-      <c r="H66" s="57"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="56"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="2" t="s">
         <v>125</v>
       </c>
@@ -3978,12 +3705,12 @@
       <c r="F67" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G67" s="61"/>
-      <c r="H67" s="57"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="2" t="s">
         <v>126</v>
       </c>
@@ -3996,12 +3723,12 @@
       <c r="F68" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="61"/>
-      <c r="H68" s="57"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="56"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="2" t="s">
         <v>127</v>
       </c>
@@ -4014,12 +3741,12 @@
       <c r="F69" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G69" s="61"/>
-      <c r="H69" s="57"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="56"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="2" t="s">
         <v>128</v>
       </c>
@@ -4032,12 +3759,12 @@
       <c r="F70" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="57"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="56"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="2" t="s">
         <v>129</v>
       </c>
@@ -4050,12 +3777,12 @@
       <c r="F71" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="61"/>
-      <c r="H71" s="57"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="56"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="2" t="s">
         <v>130</v>
       </c>
@@ -4068,12 +3795,12 @@
       <c r="F72" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="57"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="56"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="2" t="s">
         <v>131</v>
       </c>
@@ -4086,12 +3813,12 @@
       <c r="F73" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G73" s="61"/>
-      <c r="H73" s="57"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="56"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="2" t="s">
         <v>132</v>
       </c>
@@ -4099,17 +3826,17 @@
         <v>459</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="57"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="56"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="2" t="s">
         <v>133</v>
       </c>
@@ -4117,17 +3844,17 @@
         <v>504</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="61"/>
-      <c r="H75" s="57"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="56"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="2" t="s">
         <v>134</v>
       </c>
@@ -4135,17 +3862,17 @@
         <v>174</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="61"/>
-      <c r="H76" s="57"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="56"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="2" t="s">
         <v>135</v>
       </c>
@@ -4153,17 +3880,17 @@
         <v>373</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F77" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="61"/>
-      <c r="H77" s="57"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="56"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="2" t="s">
         <v>136</v>
       </c>
@@ -4171,17 +3898,17 @@
         <v>406</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="61"/>
-      <c r="H78" s="57"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="56"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="2" t="s">
         <v>137</v>
       </c>
@@ -4189,17 +3916,17 @@
         <v>375</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="57"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="56"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="2" t="s">
         <v>138</v>
       </c>
@@ -4207,17 +3934,17 @@
         <v>555</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F80" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G80" s="61"/>
-      <c r="H80" s="57"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="56"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="2" t="s">
         <v>139</v>
       </c>
@@ -4225,17 +3952,17 @@
         <v>515</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G81" s="61"/>
-      <c r="H81" s="57"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="56"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="2" t="s">
         <v>140</v>
       </c>
@@ -4243,17 +3970,17 @@
         <v>429</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="61"/>
-      <c r="H82" s="57"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="56"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="2" t="s">
         <v>141</v>
       </c>
@@ -4261,17 +3988,17 @@
         <v>432</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="61"/>
-      <c r="H83" s="57"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="56"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="2" t="s">
         <v>142</v>
       </c>
@@ -4279,17 +4006,17 @@
         <v>85</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="57"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="56"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="2" t="s">
         <v>143</v>
       </c>
@@ -4302,12 +4029,12 @@
       <c r="F85" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G85" s="61"/>
-      <c r="H85" s="57"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="56"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="2" t="s">
         <v>144</v>
       </c>
@@ -4320,12 +4047,12 @@
       <c r="F86" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G86" s="61"/>
-      <c r="H86" s="57"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="56"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
       <c r="C87" s="2" t="s">
         <v>145</v>
       </c>
@@ -4338,12 +4065,12 @@
       <c r="F87" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G87" s="61"/>
-      <c r="H87" s="57"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="56"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="2" t="s">
         <v>146</v>
       </c>
@@ -4356,12 +4083,12 @@
       <c r="F88" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G88" s="61"/>
-      <c r="H88" s="57"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="56"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="60"/>
-      <c r="B89" s="60"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="2" t="s">
         <v>147</v>
       </c>
@@ -4374,12 +4101,12 @@
       <c r="F89" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G89" s="61"/>
-      <c r="H89" s="57"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="56"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="60"/>
-      <c r="B90" s="60"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="2" t="s">
         <v>148</v>
       </c>
@@ -4392,12 +4119,12 @@
       <c r="F90" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G90" s="61"/>
-      <c r="H90" s="57"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="56"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="60"/>
-      <c r="B91" s="60"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="2" t="s">
         <v>149</v>
       </c>
@@ -4410,12 +4137,12 @@
       <c r="F91" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G91" s="61"/>
-      <c r="H91" s="57"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="56"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="60"/>
-      <c r="B92" s="60"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="2" t="s">
         <v>150</v>
       </c>
@@ -4428,12 +4155,12 @@
       <c r="F92" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G92" s="61"/>
-      <c r="H92" s="57"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="56"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="60"/>
-      <c r="B93" s="60"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="2" t="s">
         <v>151</v>
       </c>
@@ -4446,12 +4173,12 @@
       <c r="F93" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G93" s="61"/>
-      <c r="H93" s="57"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="56"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="2" t="s">
         <v>152</v>
       </c>
@@ -4459,17 +4186,17 @@
         <v>604</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G94" s="61"/>
-      <c r="H94" s="57"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="56"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="2" t="s">
         <v>153</v>
       </c>
@@ -4477,17 +4204,17 @@
         <v>701</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="57"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="56"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="2" t="s">
         <v>154</v>
       </c>
@@ -4500,12 +4227,12 @@
       <c r="F96" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G96" s="61"/>
-      <c r="H96" s="57"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="56"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="2" t="s">
         <v>155</v>
       </c>
@@ -4518,12 +4245,12 @@
       <c r="F97" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="57"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="56"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
       <c r="C98" s="2" t="s">
         <v>156</v>
       </c>
@@ -4536,12 +4263,12 @@
       <c r="F98" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G98" s="61"/>
-      <c r="H98" s="57"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="56"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
       <c r="C99" s="2" t="s">
         <v>157</v>
       </c>
@@ -4554,12 +4281,12 @@
       <c r="F99" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="61"/>
-      <c r="H99" s="57"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="56"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
       <c r="C100" s="2" t="s">
         <v>158</v>
       </c>
@@ -4572,12 +4299,12 @@
       <c r="F100" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G100" s="61"/>
-      <c r="H100" s="57"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="56"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="60"/>
-      <c r="B101" s="60"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="2" t="s">
         <v>159</v>
       </c>
@@ -4590,12 +4317,12 @@
       <c r="F101" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G101" s="61"/>
-      <c r="H101" s="57"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="56"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="60"/>
-      <c r="B102" s="60"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="2" t="s">
         <v>160</v>
       </c>
@@ -4608,12 +4335,12 @@
       <c r="F102" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="61"/>
-      <c r="H102" s="57"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="56"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="17" t="s">
         <v>161</v>
       </c>
@@ -4626,85 +4353,85 @@
       <c r="F103" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="58"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="57"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="55" t="s">
-        <v>634</v>
+      <c r="A104" s="54" t="s">
+        <v>529</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>639</v>
+        <v>534</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D104" s="54">
+        <v>532</v>
+      </c>
+      <c r="D104" s="53">
         <v>3301</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>109</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>636</v>
+        <v>531</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>640</v>
+        <v>535</v>
       </c>
       <c r="H104" s="40" t="s">
-        <v>635</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="60"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="21" t="s">
-        <v>644</v>
+        <v>539</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D105" s="54">
+        <v>540</v>
+      </c>
+      <c r="D105" s="53">
         <v>10708</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>109</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>636</v>
+        <v>531</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>646</v>
+        <v>541</v>
       </c>
       <c r="H105" s="40" t="s">
-        <v>647</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="21" t="s">
-        <v>643</v>
+        <v>538</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D106" s="54">
+        <v>533</v>
+      </c>
+      <c r="D106" s="53">
         <v>30931</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>109</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>636</v>
+        <v>531</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>641</v>
+        <v>536</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>642</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="54" t="s">
         <v>165</v>
       </c>
       <c r="B107" s="29" t="s">
@@ -4723,14 +4450,14 @@
         <v>111</v>
       </c>
       <c r="G107" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H107" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="56"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="11" t="s">
         <v>169</v>
       </c>
@@ -4747,10 +4474,10 @@
         <v>109</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
@@ -4783,9 +4510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2035BDB6-8F69-9345-AEFA-B4B79742717C}">
   <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4801,31 +4528,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="A1" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>632</v>
+        <v>527</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>633</v>
+        <v>528</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>0</v>
@@ -4835,11 +4562,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
-        <v>626</v>
+      <c r="A3" s="54" t="s">
+        <v>521</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="C3" s="31">
         <v>200000</v>
@@ -4851,17 +4578,17 @@
         <v>2</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>591</v>
+        <v>486</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>521</v>
+        <v>424</v>
       </c>
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="12" t="s">
-        <v>501</v>
+        <v>404</v>
       </c>
       <c r="C4" s="23">
         <f>D4+E4</f>
@@ -4874,17 +4601,17 @@
         <v>300671</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>592</v>
+        <v>487</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>522</v>
+        <v>425</v>
       </c>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="23">
         <f>D5+E5</f>
@@ -4897,17 +4624,17 @@
         <v>677663</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>512</v>
+        <v>415</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>511</v>
+        <v>414</v>
       </c>
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="23">
         <f t="shared" ref="C6:C64" si="0">D6+E6</f>
@@ -4920,17 +4647,17 @@
         <v>35191</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>587</v>
+        <v>482</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>524</v>
+        <v>427</v>
       </c>
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="12" t="s">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="C7" s="23">
         <f t="shared" si="0"/>
@@ -4943,17 +4670,17 @@
         <v>970216</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>588</v>
+        <v>483</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>525</v>
+        <v>428</v>
       </c>
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="12" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="C8" s="23">
         <v>360838</v>
@@ -4965,17 +4692,17 @@
         <v>180709</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>593</v>
+        <v>488</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>526</v>
+        <v>429</v>
       </c>
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" s="23">
         <v>341427</v>
@@ -4987,17 +4714,17 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="23">
         <v>355891</v>
@@ -5009,17 +4736,17 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="23">
         <v>355891</v>
@@ -5031,17 +4758,17 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="12" t="s">
-        <v>504</v>
+        <v>407</v>
       </c>
       <c r="C12" s="23">
         <v>355891</v>
@@ -5053,17 +4780,17 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="12" t="s">
-        <v>505</v>
+        <v>408</v>
       </c>
       <c r="C13" s="23">
         <f t="shared" si="0"/>
@@ -5076,17 +4803,17 @@
         <v>122656</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>595</v>
+        <v>490</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="12" t="s">
-        <v>499</v>
+        <v>402</v>
       </c>
       <c r="C14" s="23">
         <f t="shared" si="0"/>
@@ -5099,17 +4826,17 @@
         <v>55525</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>596</v>
+        <v>491</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="23">
         <f t="shared" si="0"/>
@@ -5122,15 +4849,15 @@
         <v>27969</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12" t="s">
         <v>175</v>
       </c>
@@ -5145,17 +4872,17 @@
         <v>1647022</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C17" s="23">
         <v>474001</v>
@@ -5167,17 +4894,17 @@
         <v>2</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
@@ -5190,17 +4917,17 @@
         <v>371549</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="23">
         <v>28459</v>
@@ -5212,16 +4939,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>597</v>
+        <v>492</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>532</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="23">
         <v>228951</v>
@@ -5233,16 +4960,16 @@
         <v>105974</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>599</v>
+        <v>494</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>533</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="23">
         <v>47316</v>
@@ -5254,16 +4981,16 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>534</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" s="23">
         <v>547261</v>
@@ -5275,16 +5002,16 @@
         <v>424528</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>598</v>
+        <v>493</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>535</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="23">
         <v>355891</v>
@@ -5296,16 +5023,16 @@
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" s="23">
         <v>314633</v>
@@ -5314,19 +5041,19 @@
         <v>13962</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>592</v>
+        <v>487</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>522</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="12" t="s">
-        <v>506</v>
+        <v>409</v>
       </c>
       <c r="C25" s="23">
         <v>40266</v>
@@ -5338,16 +5065,16 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>536</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C26" s="23">
         <v>118147</v>
@@ -5359,16 +5086,16 @@
         <v>117165</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>537</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" s="23">
         <f>D27+E27</f>
@@ -5381,16 +5108,16 @@
         <v>1310798</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="0"/>
@@ -5403,16 +5130,16 @@
         <v>1145546</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>513</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
@@ -5425,16 +5152,16 @@
         <v>71321</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>513</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="23">
         <f t="shared" si="0"/>
@@ -5447,16 +5174,16 @@
         <v>2356386</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>513</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="23">
         <f t="shared" si="0"/>
@@ -5469,16 +5196,16 @@
         <v>2782977</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>513</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="23">
         <v>257841</v>
@@ -5490,14 +5217,14 @@
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>601</v>
+        <v>496</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>539</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="12" t="s">
         <v>4</v>
       </c>
@@ -5511,16 +5238,16 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="23">
         <v>355891</v>
@@ -5532,16 +5259,16 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" s="23">
         <v>355891</v>
@@ -5553,16 +5280,16 @@
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C36" s="23">
         <f t="shared" si="0"/>
@@ -5575,16 +5302,16 @@
         <v>363116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>602</v>
+        <v>497</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>540</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" s="23">
         <v>33265</v>
@@ -5596,16 +5323,16 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>603</v>
+        <v>498</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>541</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C38" s="23">
         <v>264000</v>
@@ -5617,16 +5344,16 @@
         <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>604</v>
+        <v>499</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>542</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C39" s="23">
         <v>265000</v>
@@ -5638,14 +5365,14 @@
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>604</v>
+        <v>499</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>542</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="12" t="s">
         <v>173</v>
       </c>
@@ -5659,16 +5386,16 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C41" s="23">
         <v>264000</v>
@@ -5680,16 +5407,16 @@
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>604</v>
+        <v>499</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>542</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C42" s="23">
         <v>941280</v>
@@ -5701,16 +5428,16 @@
         <v>2</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C43" s="23">
         <v>231000</v>
@@ -5722,16 +5449,16 @@
         <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>604</v>
+        <v>499</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>542</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C44" s="23">
         <v>1131881</v>
@@ -5743,16 +5470,16 @@
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>601</v>
+        <v>496</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>539</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="23">
         <v>142487</v>
@@ -5764,16 +5491,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>606</v>
+        <v>501</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>544</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="12" t="s">
-        <v>507</v>
+        <v>410</v>
       </c>
       <c r="C46" s="23">
         <v>133814</v>
@@ -5785,16 +5512,16 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>537</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="12" t="s">
-        <v>508</v>
+        <v>411</v>
       </c>
       <c r="C47" s="23">
         <v>33152</v>
@@ -5806,16 +5533,16 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>537</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48" s="23">
         <v>474237</v>
@@ -5827,14 +5554,14 @@
         <v>2</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="12" t="s">
         <v>170</v>
       </c>
@@ -5849,16 +5576,16 @@
         <v>29677</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>559</v>
+        <v>462</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>545</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C50" s="23">
         <v>518633</v>
@@ -5870,16 +5597,16 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>607</v>
+        <v>502</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="23">
         <v>293723</v>
@@ -5891,16 +5618,16 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>608</v>
+        <v>503</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C52" s="23">
         <v>230069</v>
@@ -5912,16 +5639,16 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>548</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="23">
         <v>151188</v>
@@ -5933,16 +5660,16 @@
         <v>2</v>
       </c>
       <c r="F53" s="48" t="s">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>549</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C54" s="23">
         <v>105056</v>
@@ -5954,16 +5681,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>549</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C55" s="23">
         <v>355891</v>
@@ -5975,16 +5702,16 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C56" s="23">
         <v>355891</v>
@@ -5996,14 +5723,14 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="12" t="s">
         <v>177</v>
       </c>
@@ -6018,16 +5745,16 @@
         <v>1448128</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C58" s="23">
         <v>466571</v>
@@ -6039,16 +5766,16 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C59" s="23">
         <v>355891</v>
@@ -6060,16 +5787,16 @@
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C60" s="23">
         <f>D60+E60</f>
@@ -6082,16 +5809,16 @@
         <v>1190067</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>579</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>180</v>
+        <v>474</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C61" s="23">
         <v>562259</v>
@@ -6103,16 +5830,16 @@
         <v>2</v>
       </c>
       <c r="F61" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C62" s="23">
         <v>1320016</v>
@@ -6124,16 +5851,16 @@
         <v>2</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>551</v>
+        <v>454</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="60"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C63" s="23">
         <v>5380080</v>
@@ -6145,16 +5872,16 @@
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>611</v>
+        <v>506</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>552</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="60"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C64" s="23">
         <f t="shared" si="0"/>
@@ -6167,16 +5894,16 @@
         <v>1286331</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G64" s="50" t="s">
-        <v>180</v>
+        <v>474</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C65" s="23">
         <v>563946</v>
@@ -6188,16 +5915,16 @@
         <v>2</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C66" s="23">
         <v>59957</v>
@@ -6209,14 +5936,14 @@
         <v>2</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>536</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="12" t="s">
         <v>171</v>
       </c>
@@ -6230,16 +5957,16 @@
         <v>2</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G67" s="51" t="s">
-        <v>553</v>
+        <v>507</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="60"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C68" s="23">
         <f t="shared" ref="C68:C110" si="1">D68+E68</f>
@@ -6252,16 +5979,16 @@
         <v>1246742</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>579</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>180</v>
+        <v>474</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="60"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C69" s="23">
         <v>269867</v>
@@ -6273,16 +6000,16 @@
         <v>2</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>613</v>
+        <v>508</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>554</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="60"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C70" s="23">
         <v>6618</v>
@@ -6294,16 +6021,16 @@
         <v>4027</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>614</v>
+        <v>509</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="60"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C71" s="23">
         <v>1320016</v>
@@ -6315,16 +6042,16 @@
         <v>2</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>551</v>
+        <v>454</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="60"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="12" t="s">
-        <v>509</v>
+        <v>412</v>
       </c>
       <c r="C72" s="23">
         <v>1320016</v>
@@ -6336,16 +6063,16 @@
         <v>2</v>
       </c>
       <c r="F72" s="48" t="s">
-        <v>551</v>
+        <v>454</v>
       </c>
       <c r="G72" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="60"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C73" s="23">
         <v>524923</v>
@@ -6357,16 +6084,16 @@
         <v>2</v>
       </c>
       <c r="F73" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G73" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="60"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C74" s="23">
         <v>768762</v>
@@ -6378,16 +6105,16 @@
         <v>2</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>555</v>
+        <v>458</v>
       </c>
       <c r="G74" s="44" t="s">
-        <v>520</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="60"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" s="23">
         <v>486823</v>
@@ -6399,16 +6126,16 @@
         <v>2</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="60"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C76" s="23">
         <v>491553</v>
@@ -6420,16 +6147,16 @@
         <v>2</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="60"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C77" s="23">
         <v>544127</v>
@@ -6441,16 +6168,16 @@
         <v>2</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="60"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C78" s="23">
         <f>D78+E78</f>
@@ -6463,16 +6190,16 @@
         <v>561190</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>615</v>
+        <v>510</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>556</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="60"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="23">
         <v>521594</v>
@@ -6484,16 +6211,16 @@
         <v>2</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="60"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C80" s="23">
         <v>205327</v>
@@ -6505,16 +6232,16 @@
         <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="60"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C81" s="23">
         <f>D81+E81</f>
@@ -6527,16 +6254,16 @@
         <v>1152977</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>617</v>
+        <v>512</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>558</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="60"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C82" s="23">
         <v>460935</v>
@@ -6548,16 +6275,16 @@
         <v>2</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="60"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C83" s="23">
         <v>115803</v>
@@ -6569,16 +6296,16 @@
         <v>68000</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G83" s="40" t="s">
-        <v>560</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="60"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C84" s="23">
         <v>885701</v>
@@ -6590,14 +6317,14 @@
         <v>876210</v>
       </c>
       <c r="F84" s="49" t="s">
-        <v>618</v>
+        <v>513</v>
       </c>
       <c r="G84" s="40" t="s">
-        <v>561</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="60"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="12" t="s">
         <v>5</v>
       </c>
@@ -6611,16 +6338,16 @@
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>605</v>
+        <v>500</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="60"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C86" s="23">
         <v>519288</v>
@@ -6632,16 +6359,16 @@
         <v>2</v>
       </c>
       <c r="F86" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="60"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C87" s="23">
         <v>230069</v>
@@ -6653,16 +6380,16 @@
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>619</v>
+        <v>514</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>548</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="60"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="12" t="s">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="C88" s="23">
         <v>66450</v>
@@ -6674,16 +6401,16 @@
         <v>40941</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>562</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="60"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="23">
         <f t="shared" si="1"/>
@@ -6696,16 +6423,16 @@
         <v>1400000</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>624</v>
+        <v>519</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>563</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="60"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C90" s="23">
         <v>542827</v>
@@ -6717,16 +6444,16 @@
         <v>2</v>
       </c>
       <c r="F90" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="60"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C91" s="23">
         <f t="shared" si="1"/>
@@ -6739,16 +6466,16 @@
         <v>1460599</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G91" s="50" t="s">
-        <v>180</v>
+        <v>474</v>
+      </c>
+      <c r="G91" s="40" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="60"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C92" s="23">
         <v>140254</v>
@@ -6760,16 +6487,16 @@
         <v>61112</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>621</v>
+        <v>516</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>564</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="60"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C93" s="23">
         <v>276020</v>
@@ -6781,16 +6508,16 @@
         <v>240149</v>
       </c>
       <c r="F93" s="48" t="s">
-        <v>518</v>
+        <v>421</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>519</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="60"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C94" s="23">
         <v>531774</v>
@@ -6802,16 +6529,16 @@
         <v>2</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="60"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C95" s="23">
         <v>545203</v>
@@ -6823,14 +6550,14 @@
         <v>2</v>
       </c>
       <c r="F95" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="60"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="12" t="s">
         <v>172</v>
       </c>
@@ -6845,16 +6572,16 @@
         <v>243649</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>622</v>
+        <v>517</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>565</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="60"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C97" s="23">
         <v>351827</v>
@@ -6866,16 +6593,16 @@
         <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>625</v>
+        <v>520</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="60"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C98" s="23">
         <f>D98+E98</f>
@@ -6888,16 +6615,16 @@
         <v>6959</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>623</v>
+        <v>518</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>566</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="60"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C99" s="23">
         <v>547219</v>
@@ -6909,16 +6636,16 @@
         <v>2</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="60"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C100" s="23">
         <v>1232091</v>
@@ -6930,14 +6657,14 @@
         <v>2</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="G100" s="40" t="s">
-        <v>527</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="60"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="12" t="s">
         <v>174</v>
       </c>
@@ -6952,16 +6679,16 @@
         <v>454450</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>586</v>
+        <v>481</v>
       </c>
       <c r="G101" s="40" t="s">
-        <v>567</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="60"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C102" s="23">
         <v>298420</v>
@@ -6973,16 +6700,16 @@
         <v>2</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>585</v>
+        <v>480</v>
       </c>
       <c r="G102" s="40" t="s">
-        <v>568</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="60"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C103" s="23">
         <f t="shared" si="1"/>
@@ -6995,16 +6722,16 @@
         <v>1159055</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>584</v>
+        <v>479</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>583</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="60"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C104" s="23">
         <v>1320016</v>
@@ -7016,16 +6743,16 @@
         <v>2</v>
       </c>
       <c r="F104" s="48" t="s">
-        <v>551</v>
+        <v>454</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="60"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C105" s="23">
         <v>355891</v>
@@ -7037,16 +6764,16 @@
         <v>2</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="60"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C106" s="23">
         <v>355891</v>
@@ -7058,14 +6785,14 @@
         <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G106" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="60"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="12" t="s">
         <v>3</v>
       </c>
@@ -7079,16 +6806,16 @@
         <v>2</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="60"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C108" s="23">
         <v>45975</v>
@@ -7100,14 +6827,14 @@
         <v>2</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="G108" s="40" t="s">
-        <v>536</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="60"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="12" t="s">
         <v>176</v>
       </c>
@@ -7121,16 +6848,16 @@
         <v>39586</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>580</v>
+        <v>475</v>
       </c>
       <c r="G109" s="40" t="s">
-        <v>569</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="60"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" s="23">
         <f t="shared" si="1"/>
@@ -7143,16 +6870,16 @@
         <v>1035290</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="G110" s="40" t="s">
-        <v>180</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="60"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C111" s="23">
         <v>562243</v>
@@ -7164,16 +6891,16 @@
         <v>2</v>
       </c>
       <c r="F111" s="48" t="s">
-        <v>517</v>
+        <v>420</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>516</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="56"/>
+      <c r="A112" s="55"/>
       <c r="B112" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C112" s="39">
         <v>694649</v>
@@ -7185,18 +6912,18 @@
         <v>2</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>570</v>
+        <v>473</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="55" t="s">
-        <v>196</v>
+      <c r="A113" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" s="31">
         <v>304155</v>
@@ -7207,17 +6934,17 @@
       <c r="E113" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F113" s="52" t="s">
-        <v>487</v>
-      </c>
-      <c r="G113" s="53" t="s">
-        <v>486</v>
+      <c r="F113" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="G113" s="52" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="60"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" s="23">
         <v>255880</v>
@@ -7229,16 +6956,16 @@
         <v>248810</v>
       </c>
       <c r="F114" s="46" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="G114" s="44" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="60"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C115" s="23">
         <v>429145</v>
@@ -7250,16 +6977,16 @@
         <v>2</v>
       </c>
       <c r="F115" s="46" t="s">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="G115" s="44" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="60"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C116" s="23">
         <v>329052</v>
@@ -7271,16 +6998,16 @@
         <v>2</v>
       </c>
       <c r="F116" s="46" t="s">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="G116" s="44" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="60"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="23">
         <f>D117+E117</f>
@@ -7293,16 +7020,16 @@
         <v>439294</v>
       </c>
       <c r="F117" s="46" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="60"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C118" s="23">
         <v>516793</v>
@@ -7315,16 +7042,16 @@
         <v>511585</v>
       </c>
       <c r="F118" s="46" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="G118" s="40" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="60"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" s="23">
         <v>387719</v>
@@ -7336,16 +7063,16 @@
         <v>2</v>
       </c>
       <c r="F119" s="46" t="s">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="G119" s="40" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="56"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C120" s="39">
         <f>D120+E120</f>
@@ -7358,18 +7085,18 @@
         <v>418432</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>498</v>
+        <v>401</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="55" t="s">
-        <v>197</v>
+      <c r="A121" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C121" s="31">
         <v>240378</v>
@@ -7380,17 +7107,17 @@
       <c r="E121" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F121" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="G121" s="47" t="s">
-        <v>571</v>
+      <c r="F121" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G121" s="65" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="60"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C122" s="23">
         <v>448114</v>
@@ -7401,15 +7128,13 @@
       <c r="E122" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F122" s="61"/>
-      <c r="G122" s="40" t="s">
-        <v>572</v>
-      </c>
+      <c r="F122" s="60"/>
+      <c r="G122" s="56"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="60"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C123" s="23">
         <v>454841</v>
@@ -7420,15 +7145,13 @@
       <c r="E123" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F123" s="61"/>
-      <c r="G123" s="40" t="s">
-        <v>573</v>
-      </c>
+      <c r="F123" s="60"/>
+      <c r="G123" s="56"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="60"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C124" s="23">
         <v>430029</v>
@@ -7439,15 +7162,13 @@
       <c r="E124" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F124" s="61"/>
-      <c r="G124" s="40" t="s">
-        <v>574</v>
-      </c>
+      <c r="F124" s="60"/>
+      <c r="G124" s="56"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="60"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C125" s="23">
         <v>430025</v>
@@ -7458,13 +7179,11 @@
       <c r="E125" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F125" s="61"/>
-      <c r="G125" s="40" t="s">
-        <v>575</v>
-      </c>
+      <c r="F125" s="60"/>
+      <c r="G125" s="56"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="60"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="12" t="s">
         <v>178</v>
       </c>
@@ -7477,15 +7196,13 @@
       <c r="E126" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F126" s="61"/>
-      <c r="G126" s="40" t="s">
-        <v>576</v>
-      </c>
+      <c r="F126" s="60"/>
+      <c r="G126" s="56"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="60"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C127" s="23">
         <v>262294</v>
@@ -7496,15 +7213,13 @@
       <c r="E127" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F127" s="61"/>
-      <c r="G127" s="44" t="s">
-        <v>577</v>
-      </c>
+      <c r="F127" s="60"/>
+      <c r="G127" s="56"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="60"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="23">
         <v>456348</v>
@@ -7515,17 +7230,17 @@
       <c r="E128" s="23">
         <v>441481</v>
       </c>
-      <c r="F128" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="G128" s="40" t="s">
-        <v>474</v>
+      <c r="F128" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="G128" s="66" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="60"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" s="23">
         <v>456348</v>
@@ -7536,15 +7251,13 @@
       <c r="E129" s="23">
         <v>455312</v>
       </c>
-      <c r="F129" s="61"/>
-      <c r="G129" s="40" t="s">
-        <v>475</v>
-      </c>
+      <c r="F129" s="60"/>
+      <c r="G129" s="66"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="60"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C130" s="23">
         <v>456348</v>
@@ -7555,15 +7268,13 @@
       <c r="E130" s="23">
         <v>455989</v>
       </c>
-      <c r="F130" s="61"/>
-      <c r="G130" s="40" t="s">
-        <v>476</v>
-      </c>
+      <c r="F130" s="60"/>
+      <c r="G130" s="66"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="60"/>
+      <c r="A131" s="59"/>
       <c r="B131" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C131" s="23">
         <v>456348</v>
@@ -7574,15 +7285,13 @@
       <c r="E131" s="23">
         <v>456223</v>
       </c>
-      <c r="F131" s="61"/>
-      <c r="G131" s="40" t="s">
-        <v>477</v>
-      </c>
+      <c r="F131" s="60"/>
+      <c r="G131" s="66"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="60"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C132" s="23">
         <v>456348</v>
@@ -7593,15 +7302,13 @@
       <c r="E132" s="23">
         <v>439605</v>
       </c>
-      <c r="F132" s="61"/>
-      <c r="G132" s="40" t="s">
-        <v>478</v>
-      </c>
+      <c r="F132" s="60"/>
+      <c r="G132" s="66"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="60"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C133" s="23">
         <v>456348</v>
@@ -7612,15 +7319,13 @@
       <c r="E133" s="23">
         <v>455829</v>
       </c>
-      <c r="F133" s="61"/>
-      <c r="G133" s="40" t="s">
-        <v>479</v>
-      </c>
+      <c r="F133" s="60"/>
+      <c r="G133" s="66"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="60"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" s="23">
         <v>247540</v>
@@ -7631,15 +7336,13 @@
       <c r="E134" s="23">
         <v>246641</v>
       </c>
-      <c r="F134" s="61"/>
-      <c r="G134" s="40" t="s">
-        <v>484</v>
-      </c>
+      <c r="F134" s="60"/>
+      <c r="G134" s="66"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="60"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C135" s="23">
         <v>456348</v>
@@ -7650,15 +7353,13 @@
       <c r="E135" s="23">
         <v>455309</v>
       </c>
-      <c r="F135" s="61"/>
-      <c r="G135" s="40" t="s">
-        <v>480</v>
-      </c>
+      <c r="F135" s="60"/>
+      <c r="G135" s="66"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="60"/>
+      <c r="A136" s="59"/>
       <c r="B136" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C136" s="23">
         <v>456348</v>
@@ -7669,15 +7370,13 @@
       <c r="E136" s="23">
         <v>456014</v>
       </c>
-      <c r="F136" s="61"/>
-      <c r="G136" s="40" t="s">
-        <v>481</v>
-      </c>
+      <c r="F136" s="60"/>
+      <c r="G136" s="66"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="60"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C137" s="23">
         <v>456348</v>
@@ -7688,15 +7387,13 @@
       <c r="E137" s="23">
         <v>455910</v>
       </c>
-      <c r="F137" s="61"/>
-      <c r="G137" s="40" t="s">
-        <v>482</v>
-      </c>
+      <c r="F137" s="60"/>
+      <c r="G137" s="66"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="56"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C138" s="39">
         <v>456348</v>
@@ -7707,17 +7404,15 @@
       <c r="E138" s="39">
         <v>449679</v>
       </c>
-      <c r="F138" s="62"/>
-      <c r="G138" s="41" t="s">
-        <v>483</v>
-      </c>
+      <c r="F138" s="61"/>
+      <c r="G138" s="67"/>
     </row>
     <row r="139" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="60" t="s">
-        <v>627</v>
+      <c r="A139" s="59" t="s">
+        <v>522</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C139" s="23">
         <f>D139+E139</f>
@@ -7729,17 +7424,17 @@
       <c r="E139" s="23">
         <v>297590</v>
       </c>
-      <c r="F139" s="63" t="s">
-        <v>473</v>
-      </c>
-      <c r="G139" s="40" t="s">
-        <v>396</v>
+      <c r="F139" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="G139" s="65" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="60"/>
+      <c r="A140" s="59"/>
       <c r="B140" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C140" s="23">
         <f t="shared" ref="C140:C203" si="2">D140+E140</f>
@@ -7751,15 +7446,13 @@
       <c r="E140" s="23">
         <v>278818</v>
       </c>
-      <c r="F140" s="63"/>
-      <c r="G140" s="40" t="s">
-        <v>397</v>
-      </c>
+      <c r="F140" s="69"/>
+      <c r="G140" s="64"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="60"/>
+      <c r="A141" s="59"/>
       <c r="B141" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C141" s="23">
         <f t="shared" si="2"/>
@@ -7771,15 +7464,13 @@
       <c r="E141" s="23">
         <v>269572</v>
       </c>
-      <c r="F141" s="63"/>
-      <c r="G141" s="40" t="s">
-        <v>398</v>
-      </c>
+      <c r="F141" s="69"/>
+      <c r="G141" s="64"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="60"/>
+      <c r="A142" s="59"/>
       <c r="B142" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C142" s="23">
         <f t="shared" si="2"/>
@@ -7791,15 +7482,13 @@
       <c r="E142" s="23">
         <v>260124</v>
       </c>
-      <c r="F142" s="63"/>
-      <c r="G142" s="40" t="s">
-        <v>399</v>
-      </c>
+      <c r="F142" s="69"/>
+      <c r="G142" s="64"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="60"/>
+      <c r="A143" s="59"/>
       <c r="B143" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C143" s="23">
         <f t="shared" si="2"/>
@@ -7811,15 +7500,13 @@
       <c r="E143" s="23">
         <v>278423</v>
       </c>
-      <c r="F143" s="63"/>
-      <c r="G143" s="40" t="s">
-        <v>400</v>
-      </c>
+      <c r="F143" s="69"/>
+      <c r="G143" s="64"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="60"/>
+      <c r="A144" s="59"/>
       <c r="B144" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C144" s="23">
         <f t="shared" si="2"/>
@@ -7831,15 +7518,13 @@
       <c r="E144" s="23">
         <v>233081</v>
       </c>
-      <c r="F144" s="63"/>
-      <c r="G144" s="40" t="s">
-        <v>401</v>
-      </c>
+      <c r="F144" s="69"/>
+      <c r="G144" s="64"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="60"/>
+      <c r="A145" s="59"/>
       <c r="B145" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C145" s="23">
         <f t="shared" si="2"/>
@@ -7851,15 +7536,13 @@
       <c r="E145" s="23">
         <v>232612</v>
       </c>
-      <c r="F145" s="63"/>
-      <c r="G145" s="40" t="s">
-        <v>402</v>
-      </c>
+      <c r="F145" s="69"/>
+      <c r="G145" s="64"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="60"/>
+      <c r="A146" s="59"/>
       <c r="B146" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C146" s="23">
         <f t="shared" si="2"/>
@@ -7871,15 +7554,13 @@
       <c r="E146" s="23">
         <v>231780</v>
       </c>
-      <c r="F146" s="63"/>
-      <c r="G146" s="40" t="s">
-        <v>403</v>
-      </c>
+      <c r="F146" s="69"/>
+      <c r="G146" s="64"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="60"/>
+      <c r="A147" s="59"/>
       <c r="B147" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C147" s="23">
         <f t="shared" si="2"/>
@@ -7891,15 +7572,13 @@
       <c r="E147" s="23">
         <v>218984</v>
       </c>
-      <c r="F147" s="63"/>
-      <c r="G147" s="40" t="s">
-        <v>404</v>
-      </c>
+      <c r="F147" s="69"/>
+      <c r="G147" s="64"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="60"/>
+      <c r="A148" s="59"/>
       <c r="B148" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C148" s="23">
         <f t="shared" si="2"/>
@@ -7911,15 +7590,13 @@
       <c r="E148" s="23">
         <v>218984</v>
       </c>
-      <c r="F148" s="63"/>
-      <c r="G148" s="40" t="s">
-        <v>405</v>
-      </c>
+      <c r="F148" s="69"/>
+      <c r="G148" s="64"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="60"/>
+      <c r="A149" s="59"/>
       <c r="B149" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C149" s="23">
         <f t="shared" si="2"/>
@@ -7931,15 +7608,13 @@
       <c r="E149" s="23">
         <v>143017</v>
       </c>
-      <c r="F149" s="63"/>
-      <c r="G149" s="40" t="s">
-        <v>406</v>
-      </c>
+      <c r="F149" s="69"/>
+      <c r="G149" s="64"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="60"/>
+      <c r="A150" s="59"/>
       <c r="B150" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C150" s="23">
         <f t="shared" si="2"/>
@@ -7951,15 +7626,13 @@
       <c r="E150" s="23">
         <v>273097</v>
       </c>
-      <c r="F150" s="63"/>
-      <c r="G150" s="44" t="s">
-        <v>407</v>
-      </c>
+      <c r="F150" s="69"/>
+      <c r="G150" s="64"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="60"/>
+      <c r="A151" s="59"/>
       <c r="B151" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C151" s="23">
         <f t="shared" si="2"/>
@@ -7971,15 +7644,13 @@
       <c r="E151" s="23">
         <v>284164</v>
       </c>
-      <c r="F151" s="63"/>
-      <c r="G151" s="44" t="s">
-        <v>408</v>
-      </c>
+      <c r="F151" s="69"/>
+      <c r="G151" s="64"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="60"/>
+      <c r="A152" s="59"/>
       <c r="B152" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C152" s="23">
         <f t="shared" si="2"/>
@@ -7991,15 +7662,13 @@
       <c r="E152" s="23">
         <v>273442</v>
       </c>
-      <c r="F152" s="63"/>
-      <c r="G152" s="44" t="s">
-        <v>409</v>
-      </c>
+      <c r="F152" s="69"/>
+      <c r="G152" s="64"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="60"/>
+      <c r="A153" s="59"/>
       <c r="B153" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C153" s="23">
         <f t="shared" si="2"/>
@@ -8011,15 +7680,13 @@
       <c r="E153" s="23">
         <v>273442</v>
       </c>
-      <c r="F153" s="63"/>
-      <c r="G153" s="44" t="s">
-        <v>410</v>
-      </c>
+      <c r="F153" s="69"/>
+      <c r="G153" s="64"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="60"/>
+      <c r="A154" s="59"/>
       <c r="B154" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C154" s="23">
         <f t="shared" si="2"/>
@@ -8031,15 +7698,13 @@
       <c r="E154" s="23">
         <v>296917</v>
       </c>
-      <c r="F154" s="63"/>
-      <c r="G154" s="40" t="s">
-        <v>411</v>
-      </c>
+      <c r="F154" s="69"/>
+      <c r="G154" s="64"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="60"/>
+      <c r="A155" s="59"/>
       <c r="B155" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C155" s="23">
         <f t="shared" si="2"/>
@@ -8051,15 +7716,13 @@
       <c r="E155" s="23">
         <v>285087</v>
       </c>
-      <c r="F155" s="63"/>
-      <c r="G155" s="40" t="s">
-        <v>412</v>
-      </c>
+      <c r="F155" s="69"/>
+      <c r="G155" s="64"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="60"/>
+      <c r="A156" s="59"/>
       <c r="B156" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C156" s="23">
         <f t="shared" si="2"/>
@@ -8071,15 +7734,13 @@
       <c r="E156" s="23">
         <v>294514</v>
       </c>
-      <c r="F156" s="63"/>
-      <c r="G156" s="40" t="s">
-        <v>413</v>
-      </c>
+      <c r="F156" s="69"/>
+      <c r="G156" s="64"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="60"/>
+      <c r="A157" s="59"/>
       <c r="B157" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C157" s="23">
         <f t="shared" si="2"/>
@@ -8091,15 +7752,13 @@
       <c r="E157" s="23">
         <v>260124</v>
       </c>
-      <c r="F157" s="63"/>
-      <c r="G157" s="40" t="s">
-        <v>414</v>
-      </c>
+      <c r="F157" s="69"/>
+      <c r="G157" s="64"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="60"/>
+      <c r="A158" s="59"/>
       <c r="B158" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C158" s="23">
         <f t="shared" si="2"/>
@@ -8111,15 +7770,13 @@
       <c r="E158" s="23">
         <v>307923</v>
       </c>
-      <c r="F158" s="63"/>
-      <c r="G158" s="40" t="s">
-        <v>415</v>
-      </c>
+      <c r="F158" s="69"/>
+      <c r="G158" s="64"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="60"/>
+      <c r="A159" s="59"/>
       <c r="B159" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C159" s="23">
         <f t="shared" si="2"/>
@@ -8131,15 +7788,13 @@
       <c r="E159" s="23">
         <v>167714</v>
       </c>
-      <c r="F159" s="63"/>
-      <c r="G159" s="40" t="s">
-        <v>416</v>
-      </c>
+      <c r="F159" s="69"/>
+      <c r="G159" s="64"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="60"/>
+      <c r="A160" s="59"/>
       <c r="B160" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C160" s="23">
         <f t="shared" si="2"/>
@@ -8151,15 +7806,13 @@
       <c r="E160" s="23">
         <v>294500</v>
       </c>
-      <c r="F160" s="63"/>
-      <c r="G160" s="40" t="s">
-        <v>417</v>
-      </c>
+      <c r="F160" s="69"/>
+      <c r="G160" s="64"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="60"/>
+      <c r="A161" s="59"/>
       <c r="B161" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C161" s="23">
         <f t="shared" si="2"/>
@@ -8171,15 +7824,13 @@
       <c r="E161" s="23">
         <v>255466</v>
       </c>
-      <c r="F161" s="63"/>
-      <c r="G161" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="F161" s="69"/>
+      <c r="G161" s="64"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="60"/>
+      <c r="A162" s="59"/>
       <c r="B162" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C162" s="23">
         <f t="shared" si="2"/>
@@ -8191,15 +7842,13 @@
       <c r="E162" s="23">
         <v>225597</v>
       </c>
-      <c r="F162" s="63"/>
-      <c r="G162" s="40" t="s">
-        <v>419</v>
-      </c>
+      <c r="F162" s="69"/>
+      <c r="G162" s="64"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="60"/>
+      <c r="A163" s="59"/>
       <c r="B163" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C163" s="23">
         <f t="shared" si="2"/>
@@ -8211,15 +7860,13 @@
       <c r="E163" s="23">
         <v>273097</v>
       </c>
-      <c r="F163" s="63"/>
-      <c r="G163" s="40" t="s">
-        <v>420</v>
-      </c>
+      <c r="F163" s="69"/>
+      <c r="G163" s="64"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="60"/>
+      <c r="A164" s="59"/>
       <c r="B164" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C164" s="23">
         <f t="shared" si="2"/>
@@ -8231,15 +7878,13 @@
       <c r="E164" s="23">
         <v>296367</v>
       </c>
-      <c r="F164" s="63"/>
-      <c r="G164" s="44" t="s">
-        <v>421</v>
-      </c>
+      <c r="F164" s="69"/>
+      <c r="G164" s="64"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="60"/>
+      <c r="A165" s="59"/>
       <c r="B165" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C165" s="23">
         <f t="shared" si="2"/>
@@ -8251,15 +7896,13 @@
       <c r="E165" s="23">
         <v>225597</v>
       </c>
-      <c r="F165" s="63"/>
-      <c r="G165" s="40" t="s">
-        <v>422</v>
-      </c>
+      <c r="F165" s="69"/>
+      <c r="G165" s="64"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="60"/>
+      <c r="A166" s="59"/>
       <c r="B166" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166" s="23">
         <f t="shared" si="2"/>
@@ -8271,15 +7914,13 @@
       <c r="E166" s="23">
         <v>284826</v>
       </c>
-      <c r="F166" s="63"/>
-      <c r="G166" s="40" t="s">
-        <v>423</v>
-      </c>
+      <c r="F166" s="69"/>
+      <c r="G166" s="64"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="60"/>
+      <c r="A167" s="59"/>
       <c r="B167" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C167" s="23">
         <f t="shared" si="2"/>
@@ -8291,15 +7932,13 @@
       <c r="E167" s="23">
         <v>265354</v>
       </c>
-      <c r="F167" s="63"/>
-      <c r="G167" s="40" t="s">
-        <v>424</v>
-      </c>
+      <c r="F167" s="69"/>
+      <c r="G167" s="64"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="60"/>
+      <c r="A168" s="59"/>
       <c r="B168" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="23">
         <f t="shared" si="2"/>
@@ -8311,15 +7950,13 @@
       <c r="E168" s="23">
         <v>301925</v>
       </c>
-      <c r="F168" s="63"/>
-      <c r="G168" s="40" t="s">
-        <v>425</v>
-      </c>
+      <c r="F168" s="69"/>
+      <c r="G168" s="64"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="60"/>
+      <c r="A169" s="59"/>
       <c r="B169" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C169" s="23">
         <f t="shared" si="2"/>
@@ -8331,15 +7968,13 @@
       <c r="E169" s="23">
         <v>259128</v>
       </c>
-      <c r="F169" s="63"/>
-      <c r="G169" s="40" t="s">
-        <v>426</v>
-      </c>
+      <c r="F169" s="69"/>
+      <c r="G169" s="64"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="60"/>
+      <c r="A170" s="59"/>
       <c r="B170" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C170" s="23">
         <f t="shared" si="2"/>
@@ -8351,15 +7986,13 @@
       <c r="E170" s="23">
         <v>94394</v>
       </c>
-      <c r="F170" s="63"/>
-      <c r="G170" s="40" t="s">
-        <v>427</v>
-      </c>
+      <c r="F170" s="69"/>
+      <c r="G170" s="64"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="60"/>
+      <c r="A171" s="59"/>
       <c r="B171" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C171" s="23">
         <f t="shared" si="2"/>
@@ -8371,15 +8004,13 @@
       <c r="E171" s="23">
         <v>269572</v>
       </c>
-      <c r="F171" s="63"/>
-      <c r="G171" s="40" t="s">
-        <v>428</v>
-      </c>
+      <c r="F171" s="69"/>
+      <c r="G171" s="64"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="60"/>
+      <c r="A172" s="59"/>
       <c r="B172" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C172" s="23">
         <f t="shared" si="2"/>
@@ -8391,15 +8022,13 @@
       <c r="E172" s="23">
         <v>265354</v>
       </c>
-      <c r="F172" s="63"/>
-      <c r="G172" s="40" t="s">
-        <v>429</v>
-      </c>
+      <c r="F172" s="69"/>
+      <c r="G172" s="64"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="60"/>
+      <c r="A173" s="59"/>
       <c r="B173" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C173" s="23">
         <f t="shared" si="2"/>
@@ -8411,15 +8040,13 @@
       <c r="E173" s="23">
         <v>150043</v>
       </c>
-      <c r="F173" s="63"/>
-      <c r="G173" s="40" t="s">
-        <v>430</v>
-      </c>
+      <c r="F173" s="69"/>
+      <c r="G173" s="64"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="60"/>
+      <c r="A174" s="59"/>
       <c r="B174" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C174" s="23">
         <f t="shared" si="2"/>
@@ -8431,15 +8058,13 @@
       <c r="E174" s="23">
         <v>295540</v>
       </c>
-      <c r="F174" s="63"/>
-      <c r="G174" s="40" t="s">
-        <v>431</v>
-      </c>
+      <c r="F174" s="69"/>
+      <c r="G174" s="64"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="60"/>
+      <c r="A175" s="59"/>
       <c r="B175" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C175" s="23">
         <f t="shared" si="2"/>
@@ -8451,15 +8076,13 @@
       <c r="E175" s="23">
         <v>262448</v>
       </c>
-      <c r="F175" s="63"/>
-      <c r="G175" s="40" t="s">
-        <v>432</v>
-      </c>
+      <c r="F175" s="69"/>
+      <c r="G175" s="64"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="60"/>
+      <c r="A176" s="59"/>
       <c r="B176" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C176" s="23">
         <f t="shared" si="2"/>
@@ -8471,15 +8094,13 @@
       <c r="E176" s="23">
         <v>237436</v>
       </c>
-      <c r="F176" s="63"/>
-      <c r="G176" s="40" t="s">
-        <v>433</v>
-      </c>
+      <c r="F176" s="69"/>
+      <c r="G176" s="64"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="60"/>
+      <c r="A177" s="59"/>
       <c r="B177" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C177" s="23">
         <f t="shared" si="2"/>
@@ -8491,13 +8112,11 @@
       <c r="E177" s="23">
         <v>297590</v>
       </c>
-      <c r="F177" s="63"/>
-      <c r="G177" s="40" t="s">
-        <v>434</v>
-      </c>
+      <c r="F177" s="69"/>
+      <c r="G177" s="64"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="60"/>
+      <c r="A178" s="59"/>
       <c r="B178" s="12" t="s">
         <v>179</v>
       </c>
@@ -8511,15 +8130,13 @@
       <c r="E178" s="23">
         <v>223663</v>
       </c>
-      <c r="F178" s="63"/>
-      <c r="G178" s="40" t="s">
-        <v>435</v>
-      </c>
+      <c r="F178" s="69"/>
+      <c r="G178" s="64"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="60"/>
+      <c r="A179" s="59"/>
       <c r="B179" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C179" s="23">
         <f t="shared" si="2"/>
@@ -8531,15 +8148,13 @@
       <c r="E179" s="23">
         <v>306063</v>
       </c>
-      <c r="F179" s="63"/>
-      <c r="G179" s="40" t="s">
-        <v>436</v>
-      </c>
+      <c r="F179" s="69"/>
+      <c r="G179" s="64"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="60"/>
+      <c r="A180" s="59"/>
       <c r="B180" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C180" s="23">
         <f t="shared" si="2"/>
@@ -8551,15 +8166,13 @@
       <c r="E180" s="23">
         <v>281373</v>
       </c>
-      <c r="F180" s="63"/>
-      <c r="G180" s="40" t="s">
-        <v>437</v>
-      </c>
+      <c r="F180" s="69"/>
+      <c r="G180" s="64"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="60"/>
+      <c r="A181" s="59"/>
       <c r="B181" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C181" s="23">
         <f t="shared" si="2"/>
@@ -8571,15 +8184,13 @@
       <c r="E181" s="23">
         <v>294514</v>
       </c>
-      <c r="F181" s="63"/>
-      <c r="G181" s="40" t="s">
-        <v>438</v>
-      </c>
+      <c r="F181" s="69"/>
+      <c r="G181" s="64"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="60"/>
+      <c r="A182" s="59"/>
       <c r="B182" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C182" s="23">
         <f t="shared" si="2"/>
@@ -8591,15 +8202,13 @@
       <c r="E182" s="23">
         <v>269572</v>
       </c>
-      <c r="F182" s="63"/>
-      <c r="G182" s="40" t="s">
-        <v>439</v>
-      </c>
+      <c r="F182" s="69"/>
+      <c r="G182" s="64"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="60"/>
+      <c r="A183" s="59"/>
       <c r="B183" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C183" s="23">
         <f t="shared" si="2"/>
@@ -8611,15 +8220,13 @@
       <c r="E183" s="23">
         <v>299128</v>
       </c>
-      <c r="F183" s="63"/>
-      <c r="G183" s="40" t="s">
-        <v>440</v>
-      </c>
+      <c r="F183" s="69"/>
+      <c r="G183" s="64"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="60"/>
+      <c r="A184" s="59"/>
       <c r="B184" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C184" s="23">
         <f t="shared" si="2"/>
@@ -8631,15 +8238,13 @@
       <c r="E184" s="23">
         <v>94394</v>
       </c>
-      <c r="F184" s="63"/>
-      <c r="G184" s="40" t="s">
-        <v>441</v>
-      </c>
+      <c r="F184" s="69"/>
+      <c r="G184" s="64"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="60"/>
+      <c r="A185" s="59"/>
       <c r="B185" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C185" s="23">
         <f t="shared" si="2"/>
@@ -8651,15 +8256,13 @@
       <c r="E185" s="23">
         <v>269572</v>
       </c>
-      <c r="F185" s="63"/>
-      <c r="G185" s="40" t="s">
-        <v>442</v>
-      </c>
+      <c r="F185" s="69"/>
+      <c r="G185" s="64"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="60"/>
+      <c r="A186" s="59"/>
       <c r="B186" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C186" s="23">
         <f t="shared" si="2"/>
@@ -8671,15 +8274,13 @@
       <c r="E186" s="23">
         <v>150373</v>
       </c>
-      <c r="F186" s="63"/>
-      <c r="G186" s="40" t="s">
-        <v>443</v>
-      </c>
+      <c r="F186" s="69"/>
+      <c r="G186" s="64"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="60"/>
+      <c r="A187" s="59"/>
       <c r="B187" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C187" s="23">
         <f t="shared" si="2"/>
@@ -8691,15 +8292,13 @@
       <c r="E187" s="23">
         <v>306543</v>
       </c>
-      <c r="F187" s="63"/>
-      <c r="G187" s="44" t="s">
-        <v>444</v>
-      </c>
+      <c r="F187" s="69"/>
+      <c r="G187" s="64"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="60"/>
+      <c r="A188" s="59"/>
       <c r="B188" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C188" s="23">
         <f t="shared" si="2"/>
@@ -8711,15 +8310,13 @@
       <c r="E188" s="23">
         <v>307660</v>
       </c>
-      <c r="F188" s="63"/>
-      <c r="G188" s="44" t="s">
-        <v>445</v>
-      </c>
+      <c r="F188" s="69"/>
+      <c r="G188" s="64"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="60"/>
+      <c r="A189" s="59"/>
       <c r="B189" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C189" s="23">
         <f t="shared" si="2"/>
@@ -8731,15 +8328,13 @@
       <c r="E189" s="23">
         <v>260124</v>
       </c>
-      <c r="F189" s="63"/>
-      <c r="G189" s="44" t="s">
-        <v>446</v>
-      </c>
+      <c r="F189" s="69"/>
+      <c r="G189" s="64"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="60"/>
+      <c r="A190" s="59"/>
       <c r="B190" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C190" s="23">
         <f t="shared" si="2"/>
@@ -8751,15 +8346,13 @@
       <c r="E190" s="23">
         <v>260124</v>
       </c>
-      <c r="F190" s="63"/>
-      <c r="G190" s="44" t="s">
-        <v>447</v>
-      </c>
+      <c r="F190" s="69"/>
+      <c r="G190" s="64"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="60"/>
+      <c r="A191" s="59"/>
       <c r="B191" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C191" s="23">
         <f t="shared" si="2"/>
@@ -8771,15 +8364,13 @@
       <c r="E191" s="23">
         <v>297342</v>
       </c>
-      <c r="F191" s="63"/>
-      <c r="G191" s="40" t="s">
-        <v>448</v>
-      </c>
+      <c r="F191" s="69"/>
+      <c r="G191" s="64"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="60"/>
+      <c r="A192" s="59"/>
       <c r="B192" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="23">
         <f t="shared" si="2"/>
@@ -8791,15 +8382,13 @@
       <c r="E192" s="23">
         <v>297544</v>
       </c>
-      <c r="F192" s="63"/>
-      <c r="G192" s="40" t="s">
-        <v>449</v>
-      </c>
+      <c r="F192" s="69"/>
+      <c r="G192" s="64"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="60"/>
+      <c r="A193" s="59"/>
       <c r="B193" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C193" s="23">
         <f t="shared" si="2"/>
@@ -8811,15 +8400,13 @@
       <c r="E193" s="23">
         <v>234924</v>
       </c>
-      <c r="F193" s="63"/>
-      <c r="G193" s="40" t="s">
-        <v>450</v>
-      </c>
+      <c r="F193" s="69"/>
+      <c r="G193" s="64"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="60"/>
+      <c r="A194" s="59"/>
       <c r="B194" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C194" s="23">
         <f t="shared" si="2"/>
@@ -8831,15 +8418,13 @@
       <c r="E194" s="23">
         <v>304720</v>
       </c>
-      <c r="F194" s="63"/>
-      <c r="G194" s="40" t="s">
-        <v>451</v>
-      </c>
+      <c r="F194" s="69"/>
+      <c r="G194" s="64"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="60"/>
+      <c r="A195" s="59"/>
       <c r="B195" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C195" s="23">
         <f t="shared" si="2"/>
@@ -8851,15 +8436,13 @@
       <c r="E195" s="23">
         <v>293547</v>
       </c>
-      <c r="F195" s="63"/>
-      <c r="G195" s="40" t="s">
-        <v>452</v>
-      </c>
+      <c r="F195" s="69"/>
+      <c r="G195" s="64"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="60"/>
+      <c r="A196" s="59"/>
       <c r="B196" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C196" s="23">
         <f t="shared" si="2"/>
@@ -8871,15 +8454,13 @@
       <c r="E196" s="23">
         <v>294793</v>
       </c>
-      <c r="F196" s="63"/>
-      <c r="G196" s="40" t="s">
-        <v>453</v>
-      </c>
+      <c r="F196" s="69"/>
+      <c r="G196" s="64"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="60"/>
+      <c r="A197" s="59"/>
       <c r="B197" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C197" s="23">
         <f t="shared" si="2"/>
@@ -8891,15 +8472,13 @@
       <c r="E197" s="23">
         <v>278818</v>
       </c>
-      <c r="F197" s="63"/>
-      <c r="G197" s="40" t="s">
-        <v>454</v>
-      </c>
+      <c r="F197" s="69"/>
+      <c r="G197" s="64"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="60"/>
+      <c r="A198" s="59"/>
       <c r="B198" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C198" s="23">
         <f t="shared" si="2"/>
@@ -8911,15 +8490,13 @@
       <c r="E198" s="23">
         <v>284826</v>
       </c>
-      <c r="F198" s="63"/>
-      <c r="G198" s="40" t="s">
-        <v>455</v>
-      </c>
+      <c r="F198" s="69"/>
+      <c r="G198" s="64"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="60"/>
+      <c r="A199" s="59"/>
       <c r="B199" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="23">
         <f t="shared" si="2"/>
@@ -8931,15 +8508,13 @@
       <c r="E199" s="23">
         <v>295280</v>
       </c>
-      <c r="F199" s="63"/>
-      <c r="G199" s="40" t="s">
-        <v>456</v>
-      </c>
+      <c r="F199" s="69"/>
+      <c r="G199" s="64"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="60"/>
+      <c r="A200" s="59"/>
       <c r="B200" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C200" s="23">
         <f t="shared" si="2"/>
@@ -8951,15 +8526,13 @@
       <c r="E200" s="23">
         <v>165817</v>
       </c>
-      <c r="F200" s="63"/>
-      <c r="G200" s="40" t="s">
-        <v>457</v>
-      </c>
+      <c r="F200" s="69"/>
+      <c r="G200" s="64"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="60"/>
+      <c r="A201" s="59"/>
       <c r="B201" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C201" s="23">
         <f t="shared" si="2"/>
@@ -8971,15 +8544,13 @@
       <c r="E201" s="23">
         <v>307660</v>
       </c>
-      <c r="F201" s="63"/>
-      <c r="G201" s="44" t="s">
-        <v>458</v>
-      </c>
+      <c r="F201" s="69"/>
+      <c r="G201" s="64"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="60"/>
+      <c r="A202" s="59"/>
       <c r="B202" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C202" s="23">
         <f t="shared" si="2"/>
@@ -8991,15 +8562,13 @@
       <c r="E202" s="23">
         <v>300162</v>
       </c>
-      <c r="F202" s="63"/>
-      <c r="G202" s="40" t="s">
-        <v>459</v>
-      </c>
+      <c r="F202" s="69"/>
+      <c r="G202" s="64"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="60"/>
+      <c r="A203" s="59"/>
       <c r="B203" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C203" s="23">
         <f t="shared" si="2"/>
@@ -9011,15 +8580,13 @@
       <c r="E203" s="23">
         <v>135806</v>
       </c>
-      <c r="F203" s="63"/>
-      <c r="G203" s="40" t="s">
-        <v>460</v>
-      </c>
+      <c r="F203" s="69"/>
+      <c r="G203" s="64"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="60"/>
+      <c r="A204" s="59"/>
       <c r="B204" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C204" s="23">
         <f t="shared" ref="C204:C215" si="3">D204+E204</f>
@@ -9031,15 +8598,13 @@
       <c r="E204" s="23">
         <v>160670</v>
       </c>
-      <c r="F204" s="63"/>
-      <c r="G204" s="40" t="s">
-        <v>461</v>
-      </c>
+      <c r="F204" s="69"/>
+      <c r="G204" s="64"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="60"/>
+      <c r="A205" s="59"/>
       <c r="B205" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C205" s="23">
         <f t="shared" si="3"/>
@@ -9051,15 +8616,13 @@
       <c r="E205" s="23">
         <v>94394</v>
       </c>
-      <c r="F205" s="63"/>
-      <c r="G205" s="40" t="s">
-        <v>462</v>
-      </c>
+      <c r="F205" s="69"/>
+      <c r="G205" s="64"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="60"/>
+      <c r="A206" s="59"/>
       <c r="B206" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C206" s="23">
         <f t="shared" si="3"/>
@@ -9071,15 +8634,13 @@
       <c r="E206" s="23">
         <v>299128</v>
       </c>
-      <c r="F206" s="63"/>
-      <c r="G206" s="40" t="s">
-        <v>463</v>
-      </c>
+      <c r="F206" s="69"/>
+      <c r="G206" s="64"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="60"/>
+      <c r="A207" s="59"/>
       <c r="B207" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C207" s="23">
         <f t="shared" si="3"/>
@@ -9091,15 +8652,13 @@
       <c r="E207" s="23">
         <v>269572</v>
       </c>
-      <c r="F207" s="63"/>
-      <c r="G207" s="40" t="s">
-        <v>464</v>
-      </c>
+      <c r="F207" s="69"/>
+      <c r="G207" s="64"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="60"/>
+      <c r="A208" s="59"/>
       <c r="B208" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C208" s="23">
         <f t="shared" si="3"/>
@@ -9111,15 +8670,13 @@
       <c r="E208" s="23">
         <v>307448</v>
       </c>
-      <c r="F208" s="63"/>
-      <c r="G208" s="40" t="s">
-        <v>465</v>
-      </c>
+      <c r="F208" s="69"/>
+      <c r="G208" s="64"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="60"/>
+      <c r="A209" s="59"/>
       <c r="B209" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C209" s="23">
         <f t="shared" si="3"/>
@@ -9131,15 +8688,13 @@
       <c r="E209" s="23">
         <v>182685</v>
       </c>
-      <c r="F209" s="63"/>
-      <c r="G209" s="40" t="s">
-        <v>466</v>
-      </c>
+      <c r="F209" s="69"/>
+      <c r="G209" s="64"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="60"/>
+      <c r="A210" s="59"/>
       <c r="B210" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C210" s="23">
         <f t="shared" si="3"/>
@@ -9151,15 +8706,13 @@
       <c r="E210" s="23">
         <v>304494</v>
       </c>
-      <c r="F210" s="63"/>
-      <c r="G210" s="40" t="s">
-        <v>467</v>
-      </c>
+      <c r="F210" s="69"/>
+      <c r="G210" s="64"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="60"/>
+      <c r="A211" s="59"/>
       <c r="B211" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C211" s="23">
         <f t="shared" si="3"/>
@@ -9171,15 +8724,13 @@
       <c r="E211" s="23">
         <v>227388</v>
       </c>
-      <c r="F211" s="63"/>
-      <c r="G211" s="40" t="s">
-        <v>468</v>
-      </c>
+      <c r="F211" s="69"/>
+      <c r="G211" s="64"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="60"/>
+      <c r="A212" s="59"/>
       <c r="B212" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C212" s="23">
         <f t="shared" si="3"/>
@@ -9191,15 +8742,13 @@
       <c r="E212" s="23">
         <v>281678</v>
       </c>
-      <c r="F212" s="63"/>
-      <c r="G212" s="40" t="s">
-        <v>469</v>
-      </c>
+      <c r="F212" s="69"/>
+      <c r="G212" s="64"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="60"/>
+      <c r="A213" s="59"/>
       <c r="B213" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C213" s="23">
         <f t="shared" si="3"/>
@@ -9211,15 +8760,13 @@
       <c r="E213" s="23">
         <v>281638</v>
       </c>
-      <c r="F213" s="63"/>
-      <c r="G213" s="40" t="s">
-        <v>470</v>
-      </c>
+      <c r="F213" s="69"/>
+      <c r="G213" s="64"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="60"/>
+      <c r="A214" s="59"/>
       <c r="B214" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C214" s="23">
         <f t="shared" si="3"/>
@@ -9231,15 +8778,13 @@
       <c r="E214" s="23">
         <v>299491</v>
       </c>
-      <c r="F214" s="63"/>
-      <c r="G214" s="40" t="s">
-        <v>471</v>
-      </c>
+      <c r="F214" s="69"/>
+      <c r="G214" s="64"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="56"/>
+      <c r="A215" s="55"/>
       <c r="B215" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C215" s="39">
         <f t="shared" si="3"/>
@@ -9251,13 +8796,11 @@
       <c r="E215" s="39">
         <v>304806</v>
       </c>
-      <c r="F215" s="64"/>
-      <c r="G215" s="41" t="s">
-        <v>472</v>
-      </c>
+      <c r="F215" s="62"/>
+      <c r="G215" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A139:A215"/>
     <mergeCell ref="F139:F215"/>
     <mergeCell ref="F128:F138"/>
@@ -9266,7 +8809,16 @@
     <mergeCell ref="A3:A112"/>
     <mergeCell ref="F121:F127"/>
     <mergeCell ref="A121:A138"/>
+    <mergeCell ref="G121:G127"/>
+    <mergeCell ref="G128:G138"/>
+    <mergeCell ref="G139:G215"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G112" r:id="rId1" xr:uid="{16AB7D29-1066-D74C-BB48-855E6B19B8C9}"/>
+    <hyperlink ref="G121" r:id="rId2" xr:uid="{5D87B1CA-C513-3341-A64A-C662631AE26F}"/>
+    <hyperlink ref="G128" r:id="rId3" xr:uid="{4671C857-9F82-ED40-8C8B-E713FBB41359}"/>
+    <hyperlink ref="G139" r:id="rId4" xr:uid="{20E5A9C3-9344-3A45-B21B-6D832AFD8C7D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
